--- a/experiments/2014-01-04/A1.xlsx
+++ b/experiments/2014-01-04/A1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="19040" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="A1.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="A1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -91,8 +91,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -105,20 +107,202 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'A1'!$A$1:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0ft</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5ft</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10ft</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15ft</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20ft</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25ft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'A1'!$I$1:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>55.39419661416547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.82500622801963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.779342242439048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2129339656"/>
+        <c:axId val="-2099591480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2129339656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2099591480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2099591480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129339656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,7 +630,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I1" sqref="I1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -480,7 +664,7 @@
         <v>1388845419.6631701</v>
       </c>
       <c r="H1">
-        <f>G1-F1</f>
+        <f t="shared" ref="H1:H6" si="0">G1-F1</f>
         <v>10.687040090560913</v>
       </c>
       <c r="I1">
@@ -511,11 +695,11 @@
         <v>1388845459.4812801</v>
       </c>
       <c r="H2">
-        <f>G2-F2</f>
+        <f t="shared" si="0"/>
         <v>12.105600118637085</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I6" si="0">E2/MAX(H2,10)</f>
+        <f t="shared" ref="I2:I6" si="1">E2/MAX(H2,10)</f>
         <v>38.825006228019632</v>
       </c>
     </row>
@@ -542,11 +726,11 @@
         <v>1388845487.4561801</v>
       </c>
       <c r="H3">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>9.9370601177215576</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -573,11 +757,11 @@
         <v>1388845521.25664</v>
       </c>
       <c r="H4">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>11.548199892044067</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77934224243904837</v>
       </c>
     </row>
@@ -604,11 +788,11 @@
         <v>1388845557.31952</v>
       </c>
       <c r="H5">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>6.6818399429321289</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
@@ -635,17 +819,18 @@
         <v>1388845585.90731</v>
       </c>
       <c r="H6">
-        <f>G6-F6</f>
+        <f t="shared" si="0"/>
         <v>0.60605001449584961</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
